--- a/veri2.xlsx
+++ b/veri2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,834 +448,818 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>35885</v>
+        <v>36250</v>
       </c>
       <c r="B2" t="n">
-        <v>71.63327677979876</v>
+        <v>68.70346052179995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>35976</v>
+        <v>36341</v>
       </c>
       <c r="B3" t="n">
-        <v>71.06268695545606</v>
+        <v>68.31616835101394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>36068</v>
+        <v>36433</v>
       </c>
       <c r="B4" t="n">
-        <v>70.06278172631133</v>
+        <v>67.16393552024716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>36160</v>
+        <v>36525</v>
       </c>
       <c r="B5" t="n">
-        <v>69.88153761227031</v>
+        <v>69.17040455931962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>36250</v>
+        <v>36616</v>
       </c>
       <c r="B6" t="n">
-        <v>68.70346052179995</v>
+        <v>70.25973562753622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>36341</v>
+        <v>36707</v>
       </c>
       <c r="B7" t="n">
-        <v>68.31616835101394</v>
+        <v>72.99520735066034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>36433</v>
+        <v>36799</v>
       </c>
       <c r="B8" t="n">
-        <v>67.16393552024716</v>
+        <v>74.08233695903303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>36525</v>
+        <v>36891</v>
       </c>
       <c r="B9" t="n">
-        <v>69.17040455931962</v>
+        <v>75.14662856307571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>36616</v>
+        <v>36981</v>
       </c>
       <c r="B10" t="n">
-        <v>70.25973562753622</v>
+        <v>71.29526644591303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>36707</v>
+        <v>37072</v>
       </c>
       <c r="B11" t="n">
-        <v>72.99520735066034</v>
+        <v>67.84169613940699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>36799</v>
+        <v>37164</v>
       </c>
       <c r="B12" t="n">
-        <v>74.08233695903303</v>
+        <v>68.69092884181461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>36891</v>
+        <v>37256</v>
       </c>
       <c r="B13" t="n">
-        <v>75.14662856307571</v>
+        <v>67.53493176492299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>36981</v>
+        <v>37346</v>
       </c>
       <c r="B14" t="n">
-        <v>71.29526644591303</v>
+        <v>70.0861195563926</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>37072</v>
+        <v>37437</v>
       </c>
       <c r="B15" t="n">
-        <v>67.84169613940699</v>
+        <v>73.11132764933737</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>37164</v>
+        <v>37529</v>
       </c>
       <c r="B16" t="n">
-        <v>68.69092884181461</v>
+        <v>74.1103705661175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>37256</v>
+        <v>37621</v>
       </c>
       <c r="B17" t="n">
-        <v>67.53493176492299</v>
+        <v>75.69161559079124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>37346</v>
+        <v>37711</v>
       </c>
       <c r="B18" t="n">
-        <v>70.0861195563926</v>
+        <v>75.75489430935716</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>37437</v>
+        <v>37802</v>
       </c>
       <c r="B19" t="n">
-        <v>73.11132764933737</v>
+        <v>76.00967845703381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>37529</v>
+        <v>37894</v>
       </c>
       <c r="B20" t="n">
-        <v>74.1103705661175</v>
+        <v>78.17687584024321</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>37621</v>
+        <v>37986</v>
       </c>
       <c r="B21" t="n">
-        <v>75.69161559079124</v>
+        <v>80.54017301999367</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>37711</v>
+        <v>38077</v>
       </c>
       <c r="B22" t="n">
-        <v>75.75489430935716</v>
+        <v>82.7584773100686</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>37802</v>
+        <v>38168</v>
       </c>
       <c r="B23" t="n">
-        <v>76.00967845703381</v>
+        <v>84.68534367480687</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>37894</v>
+        <v>38260</v>
       </c>
       <c r="B24" t="n">
-        <v>78.17687584024321</v>
+        <v>85.64036614723804</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>37986</v>
+        <v>38352</v>
       </c>
       <c r="B25" t="n">
-        <v>80.54017301999367</v>
+        <v>87.02986796381188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>38077</v>
+        <v>38442</v>
       </c>
       <c r="B26" t="n">
-        <v>82.7584773100686</v>
+        <v>91.0419027642594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>38168</v>
+        <v>38533</v>
       </c>
       <c r="B27" t="n">
-        <v>84.68534367480687</v>
+        <v>91.42624477521314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>38260</v>
+        <v>38625</v>
       </c>
       <c r="B28" t="n">
-        <v>85.64036614723804</v>
+        <v>92.71715707655713</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>38352</v>
+        <v>38717</v>
       </c>
       <c r="B29" t="n">
-        <v>87.02986796381188</v>
+        <v>95.78313187361429</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>38442</v>
+        <v>38807</v>
       </c>
       <c r="B30" t="n">
-        <v>91.0419027642594</v>
+        <v>96.87997638245407</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>38533</v>
+        <v>38898</v>
       </c>
       <c r="B31" t="n">
-        <v>91.42624477521314</v>
+        <v>99.83105874969014</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>38625</v>
+        <v>38990</v>
       </c>
       <c r="B32" t="n">
-        <v>92.71715707655713</v>
+        <v>99.07884559075052</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>38717</v>
+        <v>39082</v>
       </c>
       <c r="B33" t="n">
-        <v>95.78313187361429</v>
+        <v>101.3167523603771</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>38807</v>
+        <v>39172</v>
       </c>
       <c r="B34" t="n">
-        <v>96.87997638245407</v>
+        <v>103.1638383158192</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>38898</v>
+        <v>39263</v>
       </c>
       <c r="B35" t="n">
-        <v>99.83105874969014</v>
+        <v>103.1953399261706</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>38990</v>
+        <v>39355</v>
       </c>
       <c r="B36" t="n">
-        <v>99.07884559075052</v>
+        <v>103.8004718254085</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>39082</v>
+        <v>39447</v>
       </c>
       <c r="B37" t="n">
-        <v>101.3167523603771</v>
+        <v>107.363525855326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>39172</v>
+        <v>39538</v>
       </c>
       <c r="B38" t="n">
-        <v>103.1638383158192</v>
+        <v>109.6251301049158</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>39263</v>
+        <v>39629</v>
       </c>
       <c r="B39" t="n">
-        <v>103.1953399261706</v>
+        <v>105.7349742596928</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>39355</v>
+        <v>39721</v>
       </c>
       <c r="B40" t="n">
-        <v>103.8004718254085</v>
+        <v>103.813907348346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>39447</v>
+        <v>39813</v>
       </c>
       <c r="B41" t="n">
-        <v>107.363525855326</v>
+        <v>101.1770013112624</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>39538</v>
+        <v>39903</v>
       </c>
       <c r="B42" t="n">
-        <v>109.6251301049158</v>
+        <v>95.4463161534827</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>39629</v>
+        <v>39994</v>
       </c>
       <c r="B43" t="n">
-        <v>105.7349742596928</v>
+        <v>99.27084826337317</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>39721</v>
+        <v>40086</v>
       </c>
       <c r="B44" t="n">
-        <v>103.813907348346</v>
+        <v>101.6491406341889</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>39813</v>
+        <v>40178</v>
       </c>
       <c r="B45" t="n">
-        <v>101.1770013112624</v>
+        <v>103.6336949489552</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>39903</v>
+        <v>40268</v>
       </c>
       <c r="B46" t="n">
-        <v>95.4463161534827</v>
+        <v>103.3279806950514</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>39994</v>
+        <v>40359</v>
       </c>
       <c r="B47" t="n">
-        <v>99.27084826337317</v>
+        <v>107.255176902633</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>40086</v>
+        <v>40451</v>
       </c>
       <c r="B48" t="n">
-        <v>101.6491406341889</v>
+        <v>110.226898024555</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>40178</v>
+        <v>40543</v>
       </c>
       <c r="B49" t="n">
-        <v>103.6336949489552</v>
+        <v>113.5592659012762</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>40268</v>
+        <v>40633</v>
       </c>
       <c r="B50" t="n">
-        <v>103.3279806950514</v>
+        <v>116.1187306940044</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>40359</v>
+        <v>40724</v>
       </c>
       <c r="B51" t="n">
-        <v>107.255176902633</v>
+        <v>119.3093143760346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>40451</v>
+        <v>40816</v>
       </c>
       <c r="B52" t="n">
-        <v>110.226898024555</v>
+        <v>122.4815619057921</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>40543</v>
+        <v>40908</v>
       </c>
       <c r="B53" t="n">
-        <v>113.5592659012762</v>
+        <v>124.1440187581483</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>40633</v>
+        <v>40999</v>
       </c>
       <c r="B54" t="n">
-        <v>116.1187306940044</v>
+        <v>123.0394179034503</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>40724</v>
+        <v>41090</v>
       </c>
       <c r="B55" t="n">
-        <v>119.3093143760346</v>
+        <v>125.1649569044472</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>40816</v>
+        <v>41182</v>
       </c>
       <c r="B56" t="n">
-        <v>122.4815619057921</v>
+        <v>127.3738603786685</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>40908</v>
+        <v>41274</v>
       </c>
       <c r="B57" t="n">
-        <v>124.1440187581483</v>
+        <v>129.4155255963738</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>40999</v>
+        <v>41364</v>
       </c>
       <c r="B58" t="n">
-        <v>123.0394179034503</v>
+        <v>133.2072524851696</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41090</v>
+        <v>41455</v>
       </c>
       <c r="B59" t="n">
-        <v>125.1649569044472</v>
+        <v>137.1179192483498</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41182</v>
+        <v>41547</v>
       </c>
       <c r="B60" t="n">
-        <v>127.3738603786685</v>
+        <v>139.1280352427664</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41274</v>
+        <v>41639</v>
       </c>
       <c r="B61" t="n">
-        <v>129.4155255963738</v>
+        <v>139.397706380577</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>41364</v>
+        <v>41729</v>
       </c>
       <c r="B62" t="n">
-        <v>133.2072524851696</v>
+        <v>143.4417393059072</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>41455</v>
+        <v>41820</v>
       </c>
       <c r="B63" t="n">
-        <v>137.1179192483498</v>
+        <v>141.1145315641286</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>41547</v>
+        <v>41912</v>
       </c>
       <c r="B64" t="n">
-        <v>139.1280352427664</v>
+        <v>144.5833869963007</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>41639</v>
+        <v>42004</v>
       </c>
       <c r="B65" t="n">
-        <v>139.397706380577</v>
+        <v>146.531734000422</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>41729</v>
+        <v>42094</v>
       </c>
       <c r="B66" t="n">
-        <v>143.4417393059072</v>
+        <v>149.3022823848765</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>41820</v>
+        <v>42185</v>
       </c>
       <c r="B67" t="n">
-        <v>141.1145315641286</v>
+        <v>151.577304909427</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>41912</v>
+        <v>42277</v>
       </c>
       <c r="B68" t="n">
-        <v>144.5833869963007</v>
+        <v>153.701681886587</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="B69" t="n">
-        <v>146.531734000422</v>
+        <v>155.4951758502434</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42094</v>
+        <v>42460</v>
       </c>
       <c r="B70" t="n">
-        <v>149.3022823848765</v>
+        <v>156.0573499970696</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42185</v>
+        <v>42551</v>
       </c>
       <c r="B71" t="n">
-        <v>151.577304909427</v>
+        <v>158.2903534173296</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42277</v>
+        <v>42643</v>
       </c>
       <c r="B72" t="n">
-        <v>153.701681886587</v>
+        <v>153.7511029602021</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42369</v>
+        <v>42735</v>
       </c>
       <c r="B73" t="n">
-        <v>155.4951758502434</v>
+        <v>162.2221916322172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42460</v>
+        <v>42825</v>
       </c>
       <c r="B74" t="n">
-        <v>156.0573499970696</v>
+        <v>164.4427948561103</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42551</v>
+        <v>42916</v>
       </c>
       <c r="B75" t="n">
-        <v>158.2903534173296</v>
+        <v>168.1926148578753</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42643</v>
+        <v>43008</v>
       </c>
       <c r="B76" t="n">
-        <v>153.7511029602021</v>
+        <v>170.7422779193698</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42735</v>
+        <v>43100</v>
       </c>
       <c r="B77" t="n">
-        <v>162.2221916322172</v>
+        <v>173.9569471639101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42825</v>
+        <v>43190</v>
       </c>
       <c r="B78" t="n">
-        <v>164.4427948561103</v>
+        <v>176.161482755908</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42916</v>
+        <v>43281</v>
       </c>
       <c r="B79" t="n">
-        <v>168.1926148578753</v>
+        <v>177.198191019845</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43008</v>
+        <v>43373</v>
       </c>
       <c r="B80" t="n">
-        <v>170.7422779193698</v>
+        <v>175.495050334722</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="B81" t="n">
-        <v>173.9569471639101</v>
+        <v>169.442247225773</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43190</v>
+        <v>43555</v>
       </c>
       <c r="B82" t="n">
-        <v>176.161482755908</v>
+        <v>172.090925002714</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="B83" t="n">
-        <v>177.198191019845</v>
+        <v>175.999535434216</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43373</v>
+        <v>43738</v>
       </c>
       <c r="B84" t="n">
-        <v>175.495050334722</v>
+        <v>176.933685674974</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43465</v>
+        <v>43830</v>
       </c>
       <c r="B85" t="n">
-        <v>169.442247225773</v>
+        <v>179.2962415047</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43555</v>
+        <v>43921</v>
       </c>
       <c r="B86" t="n">
-        <v>172.090925002714</v>
+        <v>179.613786497468</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43646</v>
+        <v>44012</v>
       </c>
       <c r="B87" t="n">
-        <v>175.999535434216</v>
+        <v>160.371153941863</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43738</v>
+        <v>44104</v>
       </c>
       <c r="B88" t="n">
-        <v>176.933685674974</v>
+        <v>186.690753568089</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="B89" t="n">
-        <v>179.2962415047</v>
+        <v>189.426350617761</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43921</v>
+        <v>44286</v>
       </c>
       <c r="B90" t="n">
-        <v>179.613786497468</v>
+        <v>193.279180417032</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44012</v>
+        <v>44377</v>
       </c>
       <c r="B91" t="n">
-        <v>160.371153941863</v>
+        <v>196.588569678974</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44104</v>
+        <v>44469</v>
       </c>
       <c r="B92" t="n">
-        <v>186.690753568089</v>
+        <v>203.759143273719</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44196</v>
+        <v>44561</v>
       </c>
       <c r="B93" t="n">
-        <v>189.426350617761</v>
+        <v>206.951964028044</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="B94" t="n">
-        <v>193.279180417032</v>
+        <v>207.392221054358</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="B95" t="n">
-        <v>196.588569678974</v>
+        <v>210.325574642027</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44469</v>
+        <v>44834</v>
       </c>
       <c r="B96" t="n">
-        <v>203.759143273719</v>
+        <v>211.465973842222</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="B97" t="n">
-        <v>206.951964028044</v>
+        <v>213.894751777458</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44651</v>
+        <v>45016</v>
       </c>
       <c r="B98" t="n">
-        <v>207.392221054358</v>
+        <v>214.11112369735</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="B99" t="n">
-        <v>210.325574642027</v>
+        <v>222.671451560224</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44834</v>
+        <v>45199</v>
       </c>
       <c r="B100" t="n">
-        <v>211.465973842222</v>
+        <v>223.203956207999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="B101" t="n">
-        <v>213.894751777458</v>
+        <v>225.808704891176</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="B102" t="n">
-        <v>213.5468790302873</v>
+        <v>228.890071069059</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45107</v>
+        <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>221.2536133566088</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>45199</v>
-      </c>
-      <c r="B104" t="n">
-        <v>221.9437994458864</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>45291</v>
-      </c>
-      <c r="B105" t="n">
-        <v>224.0583672632364</v>
+        <v>229.03907851673</v>
       </c>
     </row>
   </sheetData>

--- a/veri2.xlsx
+++ b/veri2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\BuyumeTahmin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754899F7-C1E9-4DCA-B795-D2EA07164CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409DC059-1541-4FD2-8CF5-8527EC0C78D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
         <v>45565</v>
       </c>
       <c r="B104">
-        <v>227.5</v>
+        <v>227.6</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>45657</v>
       </c>
       <c r="B105">
-        <v>229.93</v>
+        <v>231.3</v>
       </c>
     </row>
   </sheetData>
